--- a/biology/Botanique/Dichapetalum/Dichapetalum.xlsx
+++ b/biology/Botanique/Dichapetalum/Dichapetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichapetalum est un genre de plantes à fleurs de la famille des Dichapetalaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 septembre 2017) :
 Dichapetalum acuminatum De Willd.
 Dichapetalum affine (Planch. ex Benth.) Breteler
 Dichapetalum albidum Chevalier ex Pellegrin
@@ -670,7 +684,7 @@
 Dichapetalum witianum F.J. Breteler
 Dichapetalum zenkeri Engl.
 Dichapetalum zeylanicum A.J.G.H. Kostermans
-Selon GRIN            (15 septembre 2017)[3] :
+Selon GRIN            (15 septembre 2017) :
 Dichapetalum braunii Engl. &amp; K. Krause
 Dichapetalum cymosum (Hook.) Engl.
 Dichapetalum donnell-smithii Engl.
@@ -679,7 +693,7 @@
 Dichapetalum ruhlandii Engl.
 Dichapetalum stuhlmannii Engl.
 Dichapetalum vitiense (Seem.) Engl.
-Selon NCBI  (15 septembre 2017)[4] :
+Selon NCBI  (15 septembre 2017) :
 Dichapetalum barbosae
 Dichapetalum brownii
 Dichapetalum crassifolium
@@ -693,7 +707,7 @@
 Dichapetalum papuanum
 Dichapetalum rugosum
 Dichapetalum zenkeri
-Selon The Plant List            (15 septembre 2017)[5] :
+Selon The Plant List            (15 septembre 2017) :
 Dichapetalum acuminatum De Wild.
 Dichapetalum affine (Planch. ex Benth.) Breteler
 Dichapetalum alaotrense Desc.
@@ -844,7 +858,7 @@
 Dichapetalum witianum Breteler
 Dichapetalum zenkeri Engl.
 Dichapetalum zeylanicum Kosterm.
-Selon Tropicos                                           (15 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dichapetalum abrupti-acuminatum De Wild.
 Dichapetalum acreanum Rizzini
 Dichapetalum acuminatum De Wild.
